--- a/biology/Botanique/Nyssa_aquatica/Nyssa_aquatica.xlsx
+++ b/biology/Botanique/Nyssa_aquatica/Nyssa_aquatica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nyssa aquatica, le Tupelo aquatique, communément appelé water tupelo aux États-Unis[2], cottongum[3], wild olive[3], large tupelo[3] tupelo-gum[2] ou water-gum[2] est une espèce d'arbres de grande taille, à la durée de vie importante, du genre Nyssa qui pousse dans les marais et les plaines inondées du sud-est des États-Unis[4].
-Les troncs de Nyssa aquatica présentent souvent une base évasée qui se rétrécit jusqu'à un long fût clair ; le système racinaire est souvent émergeant[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nyssa aquatica, le Tupelo aquatique, communément appelé water tupelo aux États-Unis, cottongum, wild olive, large tupelo tupelo-gum ou water-gum est une espèce d'arbres de grande taille, à la durée de vie importante, du genre Nyssa qui pousse dans les marais et les plaines inondées du sud-est des États-Unis.
+Les troncs de Nyssa aquatica présentent souvent une base évasée qui se rétrécit jusqu'à un long fût clair ; le système racinaire est souvent émergeant.
 Les Water tupelo forment souvent des colonies d'une seule essence.
 </t>
         </is>
@@ -513,10 +525,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Nyssa fait référence à une naïade grecque[5], l'espèce  aquatica, signifiant aquatique, renvoie à son habitat humide.
-Le nom commun de l'espèce, « tupelo », est d'origine amérindienne, provenant des mots Creek « ito » (« arbre ») et « opilwa » (« marais ») ; il était utilisé au milieu du XVIIIe siècle[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Nyssa fait référence à une naïade grecque, l'espèce  aquatica, signifiant aquatique, renvoie à son habitat humide.
+Le nom commun de l'espèce, « tupelo », est d'origine amérindienne, provenant des mots Creek « ito » (« arbre ») et « opilwa » (« marais ») ; il était utilisé au milieu du XVIIIe siècle.
 </t>
         </is>
       </c>
@@ -545,10 +559,12 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Un arbre mature peut donner du bois d'œuvre pour le commerce, utilisé pour la fabrication de meubles et de caisses. La base du tronc, si particulière, est recherchée par les sculpteurs.
-Beaucoup d'animaux se nourrissent des fruits et c'est un arbre mellifère apprécié[4].
+Beaucoup d'animaux se nourrissent des fruits et c'est un arbre mellifère apprécié.
 </t>
         </is>
       </c>
